--- a/TM/FTWver02.xlsx
+++ b/TM/FTWver02.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taku\Documents\00_ROOT\00_WORK\util\TM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43DB238-0FD4-4E44-8DA5-9BDDC0892D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978C0B6-A705-4035-A610-5CFE708A0FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="340" windowWidth="16660" windowHeight="11780" xr2:uid="{5847F8DE-2E8B-4F72-9757-60B0E542BD30}"/>
+    <workbookView xWindow="1100" yWindow="1530" windowWidth="17790" windowHeight="11830" activeTab="1" xr2:uid="{5847F8DE-2E8B-4F72-9757-60B0E542BD30}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="schedule" sheetId="3" r:id="rId1"/>
+    <sheet name="FT" sheetId="4" r:id="rId2"/>
+    <sheet name="memo" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="スライサー_fl">#N/A</definedName>
-    <definedName name="スライサー_pl">#N/A</definedName>
+    <definedName name="スライサー_fl1">#N/A</definedName>
+    <definedName name="スライサー_pl1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>category</t>
     <phoneticPr fontId="1"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>pl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>el</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -146,26 +142,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>=INDIRECT(ADDRESS(ROW(),4))&lt;&gt;""</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>t</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -190,60 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業１</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業２</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業３</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリ１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリ２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業４</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業５</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業６</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>REAL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -259,10 +189,6 @@
     <t>列2</t>
   </si>
   <si>
-    <t>FTW ver02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Time</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,10 +209,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録用</t>
+    <t>☕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録用 Full Time ver02</t>
     <rPh sb="0" eb="3">
       <t>トウロクヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録用 schedule</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>other</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -294,14 +235,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0\ &quot;hour&quot;"/>
-    <numFmt numFmtId="183" formatCode="h:mm;@"/>
-    <numFmt numFmtId="188" formatCode="0.00_ "/>
-    <numFmt numFmtId="189" formatCode="\~\ hh:mm"/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="\~\ hh:mm"/>
+    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="182" formatCode="0.00\ &quot;hour&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,8 +327,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,19 +343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,12 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -527,14 +463,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,60 +493,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -695,6 +612,34 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color auto="1"/>
@@ -727,35 +672,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -781,265 +698,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1053,10 +711,10 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="182" formatCode="0.00\ &quot;hour&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="0\ &quot;hour&quot;"/>
+      <numFmt numFmtId="182" formatCode="0.00\ &quot;hour&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -1121,8 +779,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="テーブル スタイル 1" pivot="0" count="2" xr9:uid="{87E2348D-42B2-4578-A176-C87CDE47475F}">
-      <tableStyleElement type="wholeTable" dxfId="65"/>
-      <tableStyleElement type="headerRow" dxfId="64"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1147,14 +805,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>147459</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>500237</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>7055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>42332</xdr:colOff>
+      <xdr:colOff>226482</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>177801</xdr:rowOff>
     </xdr:to>
@@ -1162,10 +820,10 @@
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="pl">
+            <xdr:cNvPr id="2" name="pl 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE53545-AB43-3860-8F13-61654B372CC1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAA7405-92D5-4C15-AA16-75DD035A4958}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1177,7 +835,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="pl"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="pl 1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -1192,8 +850,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9743015" y="296333"/>
-              <a:ext cx="692150" cy="1807635"/>
+              <a:off x="9734951" y="297341"/>
+              <a:ext cx="687817" cy="1812674"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1225,14 +883,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>143933</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>496711</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>70554</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>423332</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>190498</xdr:rowOff>
     </xdr:to>
@@ -1240,10 +898,10 @@
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="fl">
+            <xdr:cNvPr id="3" name="fl 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5ADBCA7-4FAE-8AC9-FF4F-500510D914AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF14D1B-D562-4096-97BB-A64B44EA7B19}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1255,7 +913,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="fl"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="fl 1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -1270,8 +928,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8942211" y="298448"/>
-              <a:ext cx="723899" cy="1818217"/>
+              <a:off x="8933140" y="299456"/>
+              <a:ext cx="724906" cy="1823256"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1305,20 +963,20 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="スライサー_pl" xr10:uid="{3E72E3D4-843F-4290-AE01-0D0E0EAABCC2}" sourceName="pl">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="スライサー_pl1" xr10:uid="{34BE63EC-8449-4172-8B1A-FAA6BFE89003}" sourceName="pl">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="1" column="3"/>
+      <x15:tableSlicerCache tableId="2" column="3"/>
     </x:ext>
   </extLst>
 </slicerCacheDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="スライサー_fl" xr10:uid="{B8BC4A4B-CCC4-442B-A5C2-5040089D1DF7}" sourceName="fl">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="スライサー_fl1" xr10:uid="{6F938065-1571-42D6-BDFF-CCF993695AB7}" sourceName="fl">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="1" column="6"/>
+      <x15:tableSlicerCache tableId="2" column="6"/>
     </x:ext>
   </extLst>
 </slicerCacheDefinition>
@@ -1326,37 +984,39 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="pl" xr10:uid="{FBC8DB8E-3094-4413-A2FE-83802B136D49}" cache="スライサー_pl" caption="pl" rowHeight="251883"/>
-  <slicer name="fl" xr10:uid="{47276FEB-26FA-4A64-A8D8-FA26975814B5}" cache="スライサー_fl" caption="fl" rowHeight="251883"/>
+  <slicer name="pl 1" xr10:uid="{22B43904-6A21-4FE6-9B30-82B8A3E6AD8C}" cache="スライサー_pl1" caption="pl" rowHeight="251883"/>
+  <slicer name="fl 1" xr10:uid="{F09B3096-86F9-4048-91CB-9F1833FC80B8}" cache="スライサー_fl1" caption="fl" rowHeight="251883"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2983BDF6-C586-4789-9F3F-0C1E3D3A8345}" name="テーブル1" displayName="テーブル1" ref="C11:R22">
-  <autoFilter ref="C11:R22" xr:uid="{2983BDF6-C586-4789-9F3F-0C1E3D3A8345}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{FD6D12B2-D73E-4E58-848E-DE52B0F89D57}" name="category" totalsRowLabel="集計"/>
-    <tableColumn id="2" xr3:uid="{FE065889-791B-40D7-8A4A-1AAD87E5B6A1}" name="TASK"/>
-    <tableColumn id="3" xr3:uid="{9F6F2993-E10D-4073-B8EF-31596154D49D}" name="pl"/>
-    <tableColumn id="4" xr3:uid="{A0037BE2-2351-41C0-B5E1-AB62D4192669}" name="el"/>
-    <tableColumn id="5" xr3:uid="{B7D05059-F07D-471B-ACEA-A2C9F0F07343}" name="tl"/>
-    <tableColumn id="6" xr3:uid="{47362DAE-358E-4F85-ABE5-7DA24F97BA93}" name="fl" dataDxfId="63">
-      <calculatedColumnFormula>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0B9C650-C440-4A35-8EF0-27AB7D110FB3}" name="テーブル13" displayName="テーブル13" ref="C11:Q20">
+  <autoFilter ref="C11:Q20" xr:uid="{2983BDF6-C586-4789-9F3F-0C1E3D3A8345}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{EABBAFF5-D732-4981-8393-1ED72AACDAA3}" name="category" totalsRowLabel="集計"/>
+    <tableColumn id="2" xr3:uid="{09AEB0D0-A155-40B5-8349-F9CE67B4CE83}" name="TASK"/>
+    <tableColumn id="3" xr3:uid="{528A6493-8520-4464-AE2A-2772BDA393CC}" name="pl"/>
+    <tableColumn id="5" xr3:uid="{C56D7830-6F4C-4029-862B-476C6930D4E6}" name="tl"/>
+    <tableColumn id="6" xr3:uid="{EF6D7B42-2239-4E46-96A3-79F99B417DDF}" name="fl" dataDxfId="22">
+      <calculatedColumnFormula>IF(テーブル13[[#This Row],[category]]="-","-",
+IF(OR(テーブル13[[#This Row],[tl]]="o",テーブル13[[#This Row],[TASK]]=""),3,
+IF(テーブル13[[#This Row],[tl]]="",2,1
+)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BDF2F670-B428-4DA2-A538-4B02A84E4878}" name="note" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{C9F94D32-0C9D-4056-BD1E-E54AAFA3C978}" name="ln"/>
-    <tableColumn id="17" xr3:uid="{68EFE172-7707-4B56-88C9-15E737D016AF}" name="列2"/>
-    <tableColumn id="9" xr3:uid="{D6DAD97E-BFAF-4386-A8A7-1C8F69BAFD04}" name="1"/>
-    <tableColumn id="10" xr3:uid="{08368CF9-275E-47ED-9546-F97FA857B496}" name="2"/>
-    <tableColumn id="11" xr3:uid="{1707C5B4-141E-4FD1-B9EF-158458D84842}" name="3"/>
-    <tableColumn id="12" xr3:uid="{9C532D46-DCC8-4039-9A8D-34E64937C538}" name="4"/>
-    <tableColumn id="13" xr3:uid="{3E0B8C91-529D-4337-93ED-5E07159DDFEB}" name="time1" dataDxfId="61">
-      <calculatedColumnFormula>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{2C8A162C-C65A-4A86-8206-CFF80ED33891}" name="note" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{5B55BDF4-5BAE-49BD-9CED-E6536765CDD7}" name="ln"/>
+    <tableColumn id="17" xr3:uid="{33847875-39E6-42C9-AC45-89ADA1126376}" name="列2"/>
+    <tableColumn id="9" xr3:uid="{5141B7D1-CC48-48C4-AB67-E913260838CA}" name="1"/>
+    <tableColumn id="10" xr3:uid="{E393A926-602C-4AA6-9845-D7117D4FB3EF}" name="2"/>
+    <tableColumn id="11" xr3:uid="{E60D7E84-60B5-4E29-A1B8-8B050698B773}" name="3"/>
+    <tableColumn id="12" xr3:uid="{75A5A727-9857-4670-8D3D-F9451BE69E1B}" name="4"/>
+    <tableColumn id="13" xr3:uid="{3B97FFAE-7ED3-4CB6-9CE4-FB98FC2263F0}" name="time1" dataDxfId="20">
+      <calculatedColumnFormula>IF(SUM(テーブル13[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル13[[#This Row],[1]:[4]])*15/60,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4432F1C1-F0E2-4D55-A08A-63586BC03E93}" name="time2" dataDxfId="60">
-      <calculatedColumnFormula>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{6A7EA350-E505-4AFC-93C1-05AEB2AC2DEE}" name="time2" dataDxfId="19">
+      <calculatedColumnFormula>IF(テーブル13[[#This Row],[time1]]&lt;&gt;"",IF(テーブル13[[#This Row],[time1]]&gt;4,テーブル13[[#This Row],[time1]]-4,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8343BBCC-3C30-453B-8DF7-B783EFE4D638}" name="列1" totalsRowFunction="count"/>
+    <tableColumn id="15" xr3:uid="{970119E0-F4D0-45EC-94CD-AAB969DB1FDC}" name="列1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="テーブル スタイル 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1681,9 +1341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E45BF26-FCB1-4EBF-A7FD-E38756128F59}">
   <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1700,32 +1360,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="25" t="s">
-        <v>50</v>
+      <c r="D1" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D3" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>48</v>
+      <c r="D3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1737,29 +1397,29 @@
         <f ca="1">TEXT(NOW(),"hh:mm")*1&gt;D4</f>
         <v>1</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>26</v>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1768,32 +1428,32 @@
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <f t="shared" ref="C5:D36" ca="1" si="1">TEXT(NOW(),"hh:mm")*1&gt;D5</f>
+        <f t="shared" ref="C5:C36" ca="1" si="1">TEXT(NOW(),"hh:mm")*1&gt;D5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>26</v>
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1805,29 +1465,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="14">
         <v>0.375</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>26</v>
+      <c r="E6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1839,29 +1499,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>26</v>
+      <c r="E7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1873,29 +1533,29 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>26</v>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1907,18 +1567,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="14">
         <v>0.4375</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="b">
@@ -1929,18 +1589,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="b">
@@ -1951,40 +1611,40 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="14">
         <v>0.47916666666666702</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="b">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="C12" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="D12" s="14">
         <v>0.5</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="b">
@@ -1993,20 +1653,20 @@
       </c>
       <c r="C13" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="b">
@@ -2015,20 +1675,20 @@
       </c>
       <c r="C14" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
         <v>0.54166666666666696</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="b">
@@ -2037,20 +1697,20 @@
       </c>
       <c r="C15" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="b">
@@ -2059,20 +1719,20 @@
       </c>
       <c r="C16" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="b">
@@ -2081,20 +1741,20 @@
       </c>
       <c r="C17" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
         <v>0.60416666666666696</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="b">
@@ -2103,20 +1763,20 @@
       </c>
       <c r="C18" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="24">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
         <v>0.625</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="b">
@@ -2125,42 +1785,42 @@
       </c>
       <c r="C19" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
         <v>0.64583333333333404</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="14">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="b">
@@ -2171,18 +1831,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="14">
         <v>0.6875</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="b">
@@ -2193,18 +1853,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="14">
         <v>0.70833333333333404</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="b">
@@ -2215,18 +1875,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="14">
         <v>0.72916666666666696</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="b">
@@ -2237,18 +1897,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="14">
         <v>0.75</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="b">
@@ -2259,18 +1919,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="14">
         <v>0.77083333333333404</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="b">
@@ -2281,18 +1941,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="14">
         <v>0.79166666666666696</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="b">
@@ -2303,18 +1963,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="14">
         <v>0.812500000000001</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="b">
@@ -2325,18 +1985,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="14">
         <v>0.83333333333333404</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="b">
@@ -2347,18 +2007,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="14">
         <v>0.85416666666666696</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="b">
@@ -2369,18 +2029,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="14">
         <v>0.875000000000001</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="b">
@@ -2391,18 +2051,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="14">
         <v>0.89583333333333404</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="b">
@@ -2413,18 +2073,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="14">
         <v>0.91666666666666696</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="b">
@@ -2435,18 +2095,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="14">
         <v>0.937500000000001</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="b">
@@ -2457,18 +2117,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="14">
         <v>0.95833333333333404</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="b">
@@ -2479,18 +2139,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="14">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="2:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="b">
@@ -2501,35 +2161,35 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="14">
         <v>1</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E4:K36">
-    <cfRule type="containsBlanks" dxfId="18" priority="9">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="D4:K36">
+    <cfRule type="expression" dxfId="18" priority="6">
+      <formula>AND($C4=TRUE,D4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>$C4=TRUE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>$B4=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:K36">
-    <cfRule type="expression" dxfId="17" priority="6">
-      <formula>AND($C4=TRUE,D4="")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="7">
-      <formula>$C4=TRUE</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8">
-      <formula>$B4=TRUE</formula>
+  <conditionalFormatting sqref="E4:K36">
+    <cfRule type="containsBlanks" dxfId="15" priority="9">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H36">
@@ -2542,12 +2202,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8532A3-CD5B-4626-B0BD-DD7800D31F6B}">
-  <dimension ref="C1:T22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3370BB-49BF-4A68-B3D4-92638D07A04B}">
+  <dimension ref="C1:S20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2555,135 +2215,134 @@
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="2.75" customWidth="1"/>
     <col min="3" max="3" width="13.58203125" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="3.9140625" customWidth="1"/>
-    <col min="8" max="8" width="3.9140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.4140625" customWidth="1"/>
-    <col min="10" max="10" width="4.1640625" customWidth="1"/>
-    <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="15" width="3.58203125" customWidth="1"/>
-    <col min="16" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="18" width="2.08203125" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.25" customWidth="1"/>
+    <col min="6" max="6" width="3.9140625" customWidth="1"/>
+    <col min="7" max="7" width="3.9140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="14" width="3.58203125" customWidth="1"/>
+    <col min="15" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="2.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="3:19" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="I3" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="H3" s="5">
         <f>D3*24</f>
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.55000000000000004">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4">
         <v>0.91666666666666663</v>
       </c>
-      <c r="I4" s="5">
+      <c r="H4" s="5">
         <f>D4*24</f>
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f ca="1">TEXT(NOW(),"hh:mm")</f>
+        <v>15:44</v>
+      </c>
+      <c r="H5">
+        <f ca="1">D5*24</f>
+        <v>15.733333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="3:19" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="18">
+        <f ca="1">(H5-H3)/(H4-H3)</f>
+        <v>0.455072463768116</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="16">
+        <f ca="1">H5</f>
+        <v>15.733333333333334</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="3:19" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="18">
+        <f>SUM(テーブル13[time1])/(H4-H3)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="16">
+        <f>(H3+SUM(テーブル13[time1]))</f>
+        <v>10.5</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="3:19" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="20">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I5">
-        <f>D5*24</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="3:20" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="16">
-        <f>(I5-I3)/(I4-I3)</f>
-        <v>0.84905660377358494</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="22">
-        <f>I5</f>
-        <v>20</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="3:20" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="16">
-        <f>SUM(テーブル1[time1])/(I4-I3)</f>
-        <v>0.83018867924528306</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="22">
-        <f>(I3+SUM(テーブル1[time1]))</f>
-        <v>19.75</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="3:20" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="21">
-        <f>IF(J9&gt;0,J9,0)</f>
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22">
-        <f>J7-J8</f>
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="17">
+        <f ca="1">IF(I9&gt;0,I9,0)</f>
+        <v>5.2333333333333343</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16">
+        <f ca="1">I7-I8</f>
+        <v>5.2333333333333343</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -2695,9 +2354,8 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -2710,20 +2368,20 @@
       <c r="F11" t="s">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" t="s">
         <v>5</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
@@ -2735,334 +2393,144 @@
         <v>12</v>
       </c>
       <c r="O11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P11" t="s">
         <v>8</v>
       </c>
       <c r="Q11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="11" t="str">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>-</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="P12" s="13" t="str">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v>22</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="9">
+        <f>IF(テーブル13[[#This Row],[category]]="-","-",
+IF(OR(テーブル13[[#This Row],[tl]]="o",テーブル13[[#This Row],[TASK]]=""),3,
+IF(テーブル13[[#This Row],[tl]]="",2,1
+)))</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="O18" s="23" t="str">
+        <f>IF(SUM(テーブル13[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル13[[#This Row],[1]:[4]])*15/60,"")</f>
         <v/>
       </c>
-      <c r="Q12" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+      <c r="P18" s="24" t="str">
+        <f>IF(テーブル13[[#This Row],[time1]]&lt;&gt;"",IF(テーブル13[[#This Row],[time1]]&gt;4,テーブル13[[#This Row],[time1]]-4,""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="11">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="P13" s="13">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
-        <v>0.25</v>
-      </c>
-      <c r="Q13" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="25"/>
+      <c r="G19" s="9">
+        <f>IF(テーブル13[[#This Row],[category]]="-","-",
+IF(OR(テーブル13[[#This Row],[tl]]="o",テーブル13[[#This Row],[TASK]]=""),3,
+IF(テーブル13[[#This Row],[tl]]="",2,1
+)))</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="O19" s="23" t="str">
+        <f>IF(SUM(テーブル13[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル13[[#This Row],[1]:[4]])*15/60,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="11">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="P14" s="13">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
-        <v>2.5</v>
-      </c>
-      <c r="Q14" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+      <c r="P19" s="24" t="str">
+        <f>IF(テーブル13[[#This Row],[time1]]&lt;&gt;"",IF(テーブル13[[#This Row],[time1]]&gt;4,テーブル13[[#This Row],[time1]]-4,""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="11">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="P15" s="13">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
-        <v>2.25</v>
-      </c>
-      <c r="Q15" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="9">
+        <f>IF(テーブル13[[#This Row],[category]]="-","-",
+IF(OR(テーブル13[[#This Row],[tl]]="o",テーブル13[[#This Row],[TASK]]=""),3,
+IF(テーブル13[[#This Row],[tl]]="",2,1
+)))</f>
+        <v>3</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="O20" s="23" t="str">
+        <f>IF(SUM(テーブル13[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル13[[#This Row],[1]:[4]])*15/60,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="11">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="P16" s="13">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
-        <v>3.5</v>
-      </c>
-      <c r="Q16" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="11">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>3</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="P17" s="13">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
-        <v>2.5</v>
-      </c>
-      <c r="Q17" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="11">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="P18" s="13" t="str">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
-        <v/>
-      </c>
-      <c r="Q18" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="11" t="str">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>-</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="P19" s="13" t="str">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
-        <v/>
-      </c>
-      <c r="Q19" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="H20" s="11">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="P20" s="13" t="str">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
-        <v/>
-      </c>
-      <c r="Q20" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="H21" s="11">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="P21" s="13" t="str">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
-        <v/>
-      </c>
-      <c r="Q21" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="H22" s="11">
-        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="P22" s="13" t="str">
-        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
-        <v/>
-      </c>
-      <c r="Q22" s="14" t="str">
-        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+      <c r="P20" s="24" t="str">
+        <f>IF(テーブル13[[#This Row],[time1]]&lt;&gt;"",IF(テーブル13[[#This Row],[time1]]&gt;4,テーブル13[[#This Row],[time1]]-4,""),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:M9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C12:R22">
-    <cfRule type="expression" dxfId="13" priority="6">
+  <conditionalFormatting sqref="C12:Q20">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$C12="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="23">
-      <formula>$D12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:H22">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$G12="n1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>$G12="n2"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="19">
-      <formula>$E12="a"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20">
-      <formula>$E12="b"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="21">
-      <formula>$E12="c"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>$D12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3070,13 +2538,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C4E12CC-D62D-4DD5-9A97-49CCAD80513F}</x14:id>
+          <x14:id>{D1C5AE51-D455-4653-9017-55FC781F3C89}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3084,50 +2552,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66245208-97A8-4E73-9633-77ED40C1FFB9}</x14:id>
+          <x14:id>{0FB8C818-56ED-48FE-A2C2-8E82FB139FE6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:R22">
-    <cfRule type="expression" dxfId="5" priority="17">
-      <formula>$F12="o"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="18">
-      <formula>$G12="e"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G22">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
-      <formula>"y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
-      <formula>"t"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12:Q22">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="4"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{57269E98-DB22-4DCE-A7AC-795BF7C83DB6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:N9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:I9">
+  <conditionalFormatting sqref="D9:H9">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3136,9 +2566,67 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5A8224CA-D303-4D62-AB06-C1002D61AC6D}</x14:id>
+          <x14:id>{7B7934B3-4028-4510-890E-5EA1FB94D01D}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F20">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"t"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:M9">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:P20">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="4"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E4BC997D-50B2-4C77-AA58-D3EB53931CE8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:G20">
+    <cfRule type="expression" dxfId="7" priority="13">
+      <formula>$F12="n1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="14">
+      <formula>$F12="n2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="15">
+      <formula>$E12="a"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="16">
+      <formula>$E12="b"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>$E12="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="18">
+      <formula>$D12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:Q20">
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>$F12="o"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>$F12="e"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3150,7 +2638,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C4E12CC-D62D-4DD5-9A97-49CCAD80513F}">
+          <x14:cfRule type="dataBar" id="{D1C5AE51-D455-4653-9017-55FC781F3C89}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3165,7 +2653,7 @@
           <xm:sqref>D7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{66245208-97A8-4E73-9633-77ED40C1FFB9}">
+          <x14:cfRule type="dataBar" id="{0FB8C818-56ED-48FE-A2C2-8E82FB139FE6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3180,7 +2668,7 @@
           <xm:sqref>D8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{57269E98-DB22-4DCE-A7AC-795BF7C83DB6}">
+          <x14:cfRule type="dataBar" id="{7B7934B3-4028-4510-890E-5EA1FB94D01D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3192,10 +2680,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P12:Q22</xm:sqref>
+          <xm:sqref>D9:H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A8224CA-D303-4D62-AB06-C1002D61AC6D}">
+          <x14:cfRule type="dataBar" id="{E4BC997D-50B2-4C77-AA58-D3EB53931CE8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3207,7 +2695,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D9:I9</xm:sqref>
+          <xm:sqref>O12:P20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3236,7 +2724,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3246,12 +2734,12 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3259,17 +2747,17 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
